--- a/config/config_single.xlsx
+++ b/config/config_single.xlsx
@@ -8,26 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88DD54-F96A-3845-A9BE-2FD606B17686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3CBC8C-27EC-4746-9734-36C55CDBEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carrier_mapping" sheetId="1" r:id="rId1"/>
     <sheet name="generator_attributes" sheetId="2" r:id="rId2"/>
-    <sheet name="global_constraints" sheetId="3" r:id="rId3"/>
-    <sheet name="file_paths" sheetId="4" r:id="rId4"/>
-    <sheet name="regional_settings" sheetId="5" r:id="rId5"/>
-    <sheet name="cc_merge_rules" sheetId="6" r:id="rId6"/>
-    <sheet name="years" sheetId="7" r:id="rId7"/>
-    <sheet name="NOTES_MANUAL" sheetId="8" r:id="rId8"/>
+    <sheet name="carrier_order" sheetId="9" r:id="rId3"/>
+    <sheet name="global_constraints" sheetId="3" r:id="rId4"/>
+    <sheet name="file_paths" sheetId="4" r:id="rId5"/>
+    <sheet name="regional_settings" sheetId="5" r:id="rId6"/>
+    <sheet name="cc_merge_rules" sheetId="6" r:id="rId7"/>
+    <sheet name="years" sheetId="7" r:id="rId8"/>
+    <sheet name="NOTES_MANUAL" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="249">
   <si>
     <t>original_carrier</t>
   </si>
@@ -803,7 +817,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -826,13 +840,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1139,7 +1167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1294,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1340,7 @@
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1326,13 +1356,19 @@
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1343,13 +1379,19 @@
       <c r="E2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1360,13 +1402,19 @@
       <c r="E3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1377,30 +1425,42 @@
       <c r="E4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0.7</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1411,13 +1471,19 @@
       <c r="E6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1428,8 +1494,14 @@
       <c r="E7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -1443,6 +1515,12 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
@@ -1453,6 +1531,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8707A1C-4150-9D41-82C2-9F5096DD28B9}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1500,7 +1646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1553,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1582,7 +1728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1643,7 +1789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1666,7 +1812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A295"/>
   <sheetViews>

--- a/config/config_single.xlsx
+++ b/config/config_single.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3CBC8C-27EC-4746-9734-36C55CDBEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9744CC8-3AD2-904A-A850-FCF5ECC8EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1368,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
         <v>1</v>
